--- a/docs/StructureDefinition-ms-preferred-product-observation.xlsx
+++ b/docs/StructureDefinition-ms-preferred-product-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T21:07:13-05:00</t>
+    <t>2022-06-30T09:28:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-preferred-product-observation.xlsx
+++ b/docs/StructureDefinition-ms-preferred-product-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T09:28:59-05:00</t>
+    <t>2022-06-30T15:55:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-preferred-product-observation.xlsx
+++ b/docs/StructureDefinition-ms-preferred-product-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T15:55:55-05:00</t>
+    <t>2022-07-26T16:10:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2058,13 +2058,13 @@
     <col min="2" max="2" width="21.640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.2734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2075,26 +2075,26 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="72.02734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="242.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.8828125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-ms-preferred-product-observation.xlsx
+++ b/docs/StructureDefinition-ms-preferred-product-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:10:15-05:00</t>
+    <t>2022-07-26T16:47:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-preferred-product-observation.xlsx
+++ b/docs/StructureDefinition-ms-preferred-product-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:47:03-05:00</t>
+    <t>2022-07-28T10:15:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-preferred-product-observation.xlsx
+++ b/docs/StructureDefinition-ms-preferred-product-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="551">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T10:15:20-05:00</t>
+    <t>2022-10-31T18:02:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,10 +265,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -288,113 +284,113 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t>Observation.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
   </si>
   <si>
     <t>Observation.meta.lastUpdated</t>
@@ -2318,19 +2314,19 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>78</v>
@@ -2341,7 +2337,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2352,28 +2348,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2423,13 +2419,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2458,7 +2454,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2469,25 +2465,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2538,19 +2534,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2573,7 +2569,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2584,7 +2580,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>78</v>
@@ -2596,13 +2592,13 @@
         <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2653,31 +2649,31 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>78</v>
@@ -2688,11 +2684,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2711,16 +2707,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2758,19 +2754,19 @@
         <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -2782,7 +2778,7 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2794,7 +2790,7 @@
         <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>78</v>
@@ -2805,7 +2801,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2816,28 +2812,28 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2887,19 +2883,19 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>78</v>
@@ -2922,7 +2918,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2933,28 +2929,28 @@
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3004,19 +3000,19 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>78</v>
@@ -3039,7 +3035,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3050,28 +3046,28 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3121,19 +3117,19 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -3156,7 +3152,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3176,19 +3172,19 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3238,7 +3234,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -3250,7 +3246,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -3273,7 +3269,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3281,7 +3277,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>77</v>
@@ -3293,19 +3289,19 @@
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3331,31 +3327,31 @@
         <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
+      <c r="AB11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3367,7 +3363,7 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -3390,41 +3386,41 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="H12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3450,14 +3446,14 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3474,7 +3470,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3486,7 +3482,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
@@ -3509,7 +3505,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3520,7 +3516,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
@@ -3532,13 +3528,13 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3589,31 +3585,31 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3624,11 +3620,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3647,16 +3643,16 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3694,19 +3690,19 @@
         <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AB14" t="s" s="2">
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
+      <c r="AE14" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -3718,7 +3714,7 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
@@ -3730,7 +3726,7 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3741,7 +3737,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3749,34 +3745,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -3786,70 +3782,70 @@
         <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="S15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -3860,7 +3856,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3871,28 +3867,28 @@
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3942,31 +3938,31 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -3977,7 +3973,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3985,32 +3981,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
@@ -4059,31 +4055,31 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4094,7 +4090,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4105,29 +4101,29 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
@@ -4176,31 +4172,31 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4211,7 +4207,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4222,31 +4218,31 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>78</v>
@@ -4295,31 +4291,31 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4330,7 +4326,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4350,19 +4346,19 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4388,31 +4384,31 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -4424,7 +4420,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>78</v>
@@ -4447,7 +4443,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4458,28 +4454,28 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4529,19 +4525,19 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>78</v>
@@ -4564,7 +4560,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4575,7 +4571,7 @@
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4587,16 +4583,16 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4622,43 +4618,43 @@
         <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
@@ -4681,18 +4677,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4704,16 +4700,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4763,31 +4759,31 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4798,11 +4794,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4821,16 +4817,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4880,7 +4876,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4904,7 +4900,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4915,11 +4911,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4938,16 +4934,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4997,7 +4993,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -5009,7 +5005,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
@@ -5021,7 +5017,7 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -5032,11 +5028,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5049,25 +5045,25 @@
         <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -5116,7 +5112,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -5128,7 +5124,7 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
@@ -5140,7 +5136,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5151,7 +5147,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5171,20 +5167,20 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -5233,7 +5229,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -5245,22 +5241,22 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5268,11 +5264,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5288,20 +5284,20 @@
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -5350,7 +5346,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5362,19 +5358,19 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5385,11 +5381,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5405,19 +5401,19 @@
         <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5467,7 +5463,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5479,19 +5475,19 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5502,7 +5498,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5510,34 +5506,34 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>78</v>
@@ -5562,58 +5558,58 @@
         <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="X30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="X30" t="s" s="2">
+      <c r="Y30" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5621,7 +5617,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5644,19 +5640,19 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>78</v>
@@ -5681,14 +5677,14 @@
         <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5705,7 +5701,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5717,7 +5713,7 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -5729,10 +5725,10 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5740,42 +5736,42 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>78</v>
@@ -5800,66 +5796,66 @@
         <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
+      <c r="AK32" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5870,7 +5866,7 @@
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -5882,13 +5878,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5939,31 +5935,31 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5974,11 +5970,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5997,16 +5993,16 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6044,19 +6040,19 @@
         <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB34" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AB34" t="s" s="2">
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AC34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD34" t="s" s="2">
+      <c r="AE34" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -6068,7 +6064,7 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -6080,7 +6076,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -6091,7 +6087,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6111,22 +6107,22 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -6175,7 +6171,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -6187,7 +6183,7 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
@@ -6196,10 +6192,10 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6210,7 +6206,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6221,31 +6217,31 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>78</v>
@@ -6255,70 +6251,70 @@
         <v>78</v>
       </c>
       <c r="R36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="S36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
+      <c r="AF36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6329,7 +6325,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6337,34 +6333,34 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="H37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -6413,34 +6409,34 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6448,7 +6444,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6468,19 +6464,19 @@
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6530,7 +6526,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6542,7 +6538,7 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6551,13 +6547,13 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -6565,42 +6561,42 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>78</v>
@@ -6649,34 +6645,34 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -6684,42 +6680,42 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>78</v>
@@ -6756,44 +6752,44 @@
         <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AK40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6801,44 +6797,44 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>78</v>
@@ -6887,34 +6883,34 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6922,7 +6918,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6933,28 +6929,28 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7004,19 +7000,19 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
@@ -7025,13 +7021,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7039,7 +7035,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7059,20 +7055,20 @@
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>78</v>
@@ -7121,7 +7117,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -7133,22 +7129,22 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AK43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7156,7 +7152,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7167,31 +7163,31 @@
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -7228,55 +7224,55 @@
         <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AI44" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>78</v>
@@ -7286,31 +7282,31 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>78</v>
@@ -7335,11 +7331,11 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>78</v>
@@ -7357,42 +7353,42 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AI45" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7403,7 +7399,7 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -7415,19 +7411,19 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>78</v>
@@ -7452,55 +7448,55 @@
         <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH46" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH46" t="s" s="2">
+      <c r="AI46" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7511,11 +7507,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7534,19 +7530,19 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7571,14 +7567,14 @@
         <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7595,7 +7591,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7607,30 +7603,30 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7653,19 +7649,19 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
@@ -7714,7 +7710,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7726,7 +7722,7 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7735,10 +7731,10 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7749,7 +7745,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7760,7 +7756,7 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7772,16 +7768,16 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7807,66 +7803,66 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Y49" t="s" s="2">
+      <c r="Z49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7877,7 +7873,7 @@
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -7889,19 +7885,19 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>78</v>
@@ -7926,55 +7922,55 @@
         <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7985,7 +7981,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7996,7 +7992,7 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -8008,16 +8004,16 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8067,42 +8063,42 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>448</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8113,7 +8109,7 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -8125,16 +8121,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8184,42 +8180,42 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8242,19 +8238,19 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
@@ -8303,7 +8299,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -8315,19 +8311,19 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8338,7 +8334,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8349,7 +8345,7 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8361,13 +8357,13 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8418,31 +8414,31 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8453,11 +8449,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8476,16 +8472,16 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8535,7 +8531,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -8547,7 +8543,7 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
@@ -8559,7 +8555,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8570,11 +8566,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8587,25 +8583,25 @@
         <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="M56" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>78</v>
@@ -8654,7 +8650,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8666,7 +8662,7 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
@@ -8678,7 +8674,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8689,7 +8685,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8700,7 +8696,7 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8712,13 +8708,13 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8769,31 +8765,31 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AI57" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8804,7 +8800,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8815,7 +8811,7 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8827,13 +8823,13 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8884,31 +8880,31 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AI58" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>479</v>
-      </c>
       <c r="AM58" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8919,7 +8915,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8930,7 +8926,7 @@
         <v>76</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -8942,19 +8938,19 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -8979,55 +8975,55 @@
         <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="AM59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -9038,7 +9034,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9061,19 +9057,19 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -9098,14 +9094,14 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>500</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>78</v>
       </c>
@@ -9122,7 +9118,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -9134,19 +9130,19 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="AM60" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9157,7 +9153,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9168,7 +9164,7 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -9180,17 +9176,17 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>78</v>
@@ -9239,19 +9235,19 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
@@ -9263,7 +9259,7 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9274,7 +9270,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9285,7 +9281,7 @@
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -9297,13 +9293,13 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9354,19 +9350,19 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
@@ -9375,10 +9371,10 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9389,7 +9385,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9409,19 +9405,19 @@
         <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9471,7 +9467,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9483,7 +9479,7 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
@@ -9492,10 +9488,10 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9506,7 +9502,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9526,19 +9522,19 @@
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9588,7 +9584,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9600,7 +9596,7 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
@@ -9609,10 +9605,10 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9623,7 +9619,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9643,22 +9639,22 @@
         <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9707,7 +9703,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9719,7 +9715,7 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
@@ -9728,10 +9724,10 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9742,7 +9738,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9753,7 +9749,7 @@
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9765,13 +9761,13 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9822,31 +9818,31 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9857,11 +9853,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9880,16 +9876,16 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9939,7 +9935,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9951,7 +9947,7 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
@@ -9963,7 +9959,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9974,11 +9970,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9991,25 +9987,25 @@
         <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>78</v>
@@ -10058,7 +10054,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -10070,7 +10066,7 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
@@ -10082,7 +10078,7 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10093,7 +10089,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10101,34 +10097,34 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J69" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>537</v>
-      </c>
       <c r="N69" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>78</v>
@@ -10153,14 +10149,14 @@
         <v>78</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y69" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="Z69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10177,34 +10173,34 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -10212,7 +10208,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10223,31 +10219,31 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J70" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="N70" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>78</v>
@@ -10296,42 +10292,42 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10342,7 +10338,7 @@
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -10354,19 +10350,19 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>547</v>
-      </c>
       <c r="N71" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -10391,55 +10387,55 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH71" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH71" t="s" s="2">
+      <c r="AI71" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10450,11 +10446,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10473,19 +10469,19 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10510,14 +10506,14 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10534,7 +10530,7 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -10546,30 +10542,30 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10595,16 +10591,16 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>551</v>
-      </c>
       <c r="M73" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10653,7 +10649,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -10665,7 +10661,7 @@
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
@@ -10674,10 +10670,10 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>

--- a/docs/StructureDefinition-ms-preferred-product-observation.xlsx
+++ b/docs/StructureDefinition-ms-preferred-product-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-preferred-product-observation.xlsx
+++ b/docs/StructureDefinition-ms-preferred-product-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T14:44:07-05:00</t>
+    <t>2022-12-01T09:35:21-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-preferred-product-observation.xlsx
+++ b/docs/StructureDefinition-ms-preferred-product-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T09:36:27-06:00</t>
+    <t>2023-02-16T14:43:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-preferred-product-observation.xlsx
+++ b/docs/StructureDefinition-ms-preferred-product-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:43:10-06:00</t>
+    <t>2023-03-28T10:23:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-preferred-product-observation.xlsx
+++ b/docs/StructureDefinition-ms-preferred-product-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T10:23:42-05:00</t>
+    <t>2023-04-06T10:47:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-preferred-product-observation.xlsx
+++ b/docs/StructureDefinition-ms-preferred-product-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T10:47:25-05:00</t>
+    <t>2023-05-09T13:12:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
